--- a/lesson 26 (python,excel)/rec.xlsx
+++ b/lesson 26 (python,excel)/rec.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3com\PycharmProjects\data_engineer_training\lesson 26 (python,excel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053DB3A-BB26-42FD-951A-1B2A15FB10AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620CBEE-5460-4E0F-AAE7-505D999E3799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="general" sheetId="2" r:id="rId1"/>
+    <sheet name="algorithm" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>def</t>
   </si>
@@ -148,9 +149,6 @@
     <t>1 &lt; 34</t>
   </si>
   <si>
-    <t>10 &lt; 34</t>
-  </si>
-  <si>
     <t>51 &gt; 34</t>
   </si>
   <si>
@@ -169,27 +167,12 @@
     <t>op = [34]</t>
   </si>
   <si>
-    <t>sm = [1,10]</t>
-  </si>
-  <si>
-    <t>sm = [1,10,2]</t>
-  </si>
-  <si>
-    <t>sm = [1,10,2,2]</t>
-  </si>
-  <si>
     <t>18 &lt; 34</t>
   </si>
   <si>
-    <t>sm = [1,10,2,2,18]</t>
-  </si>
-  <si>
     <t>25 &lt; 34</t>
   </si>
   <si>
-    <t>sm = [1,10,2,2,18,25]</t>
-  </si>
-  <si>
     <t>if bg пустой и sm не пустой</t>
   </si>
   <si>
@@ -223,9 +206,6 @@
     <t>op = [2,2]</t>
   </si>
   <si>
-    <t>bg = [1,10]</t>
-  </si>
-  <si>
     <t>bg = [20,18]</t>
   </si>
   <si>
@@ -302,13 +282,43 @@
   </si>
   <si>
     <t>[1,2,2,18,20,25,34,51]</t>
+  </si>
+  <si>
+    <t>опорник</t>
+  </si>
+  <si>
+    <t>больше</t>
+  </si>
+  <si>
+    <t>меньше</t>
+  </si>
+  <si>
+    <t>массив</t>
+  </si>
+  <si>
+    <t>sm = [1,20,2]</t>
+  </si>
+  <si>
+    <t>sm = [1,20,2,2]</t>
+  </si>
+  <si>
+    <t>sm = [1,20,2,2,18]</t>
+  </si>
+  <si>
+    <t>sm = [1,20,2,2,18,25]</t>
+  </si>
+  <si>
+    <t>sm = [1,20]</t>
+  </si>
+  <si>
+    <t>20 &lt; 34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +342,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +374,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -419,11 +441,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,11 +666,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2228,11 +2527,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9917C3A1-363D-40AF-B0EC-BDCB9896F907}">
+  <dimension ref="B1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="B2:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35">
+        <v>20</v>
+      </c>
+      <c r="D3" s="35">
+        <v>51</v>
+      </c>
+      <c r="E3" s="35">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35">
+        <v>34</v>
+      </c>
+      <c r="G3" s="35">
+        <v>2</v>
+      </c>
+      <c r="H3" s="35">
+        <v>18</v>
+      </c>
+      <c r="I3" s="36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>18</v>
+      </c>
+      <c r="G6" s="18">
+        <v>25</v>
+      </c>
+      <c r="H6" s="29">
+        <v>34</v>
+      </c>
+      <c r="I6" s="27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="29">
+        <v>34</v>
+      </c>
+      <c r="I7" s="27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31">
+        <v>2</v>
+      </c>
+      <c r="E9" s="30">
+        <v>20</v>
+      </c>
+      <c r="F9" s="23">
+        <v>18</v>
+      </c>
+      <c r="G9" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="45"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="25">
+        <v>18</v>
+      </c>
+      <c r="F12" s="32">
+        <v>20</v>
+      </c>
+      <c r="G12" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="25">
+        <v>18</v>
+      </c>
+      <c r="F13" s="32">
+        <v>20</v>
+      </c>
+      <c r="G13" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="31">
+        <v>2</v>
+      </c>
+      <c r="E15" s="25">
+        <v>18</v>
+      </c>
+      <c r="F15" s="32">
+        <v>20</v>
+      </c>
+      <c r="G15" s="33">
+        <v>25</v>
+      </c>
+      <c r="H15" s="29">
+        <v>34</v>
+      </c>
+      <c r="I15" s="27">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,7 +2799,7 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -2374,63 +2887,63 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="8:17" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="8:17" x14ac:dyDescent="0.3">
       <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
         <v>15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="8:17" x14ac:dyDescent="0.3">
       <c r="J25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="8:17" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
         <v>19</v>
-      </c>
-      <c r="K26" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="8:17" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="8:17" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="8:17" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="8:17" x14ac:dyDescent="0.3">
@@ -2438,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="8:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.3">
@@ -2454,12 +2967,12 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.3">
       <c r="L36" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M36" t="s">
         <v>3</v>
@@ -2467,7 +2980,7 @@
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.3">
       <c r="L41" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
         <v>3</v>
@@ -2475,7 +2988,7 @@
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.3">
       <c r="L46" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M46" t="s">
         <v>3</v>
@@ -2484,10 +2997,10 @@
     <row r="51" spans="12:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="12:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L52" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N52" s="8">
         <v>1</v>
@@ -2508,21 +3021,21 @@
         <v>25</v>
       </c>
       <c r="U52" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="W52" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X52" s="9">
         <v>51</v>
       </c>
       <c r="AC52" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD52" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE52" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="AD52" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE52" s="49"/>
     </row>
     <row r="53" spans="12:31" x14ac:dyDescent="0.3">
       <c r="M53" s="14">
@@ -2559,10 +3072,10 @@
     </row>
     <row r="61" spans="12:31" x14ac:dyDescent="0.3">
       <c r="Z61" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AA61" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="18:25" x14ac:dyDescent="0.3">
@@ -2570,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="W66" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="18:25" x14ac:dyDescent="0.3">
@@ -2622,50 +3135,50 @@
     </row>
     <row r="71" spans="18:25" x14ac:dyDescent="0.3">
       <c r="T71" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="U71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="18:25" x14ac:dyDescent="0.3">
       <c r="T72" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="18:25" x14ac:dyDescent="0.3">
       <c r="T73" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="18:25" x14ac:dyDescent="0.3">
       <c r="T74" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U74" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="18:25" x14ac:dyDescent="0.3">
       <c r="T75" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U75" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="18:25" x14ac:dyDescent="0.3">
       <c r="T76" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U76" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="18:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2674,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="U78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="18:25" x14ac:dyDescent="0.3">
@@ -2682,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="U79" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="18:25" x14ac:dyDescent="0.3">
@@ -2690,12 +3203,12 @@
         <v>3</v>
       </c>
       <c r="U80" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="22:35" x14ac:dyDescent="0.3">
       <c r="V83" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="W83" t="s">
         <v>3</v>
@@ -2703,7 +3216,7 @@
     </row>
     <row r="88" spans="22:35" x14ac:dyDescent="0.3">
       <c r="V88" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="W88" t="s">
         <v>3</v>
@@ -2712,19 +3225,19 @@
     <row r="94" spans="22:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="22:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V95" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W95" t="s">
         <v>55</v>
-      </c>
-      <c r="W95" t="s">
-        <v>62</v>
       </c>
       <c r="X95" s="9">
         <v>1</v>
       </c>
       <c r="Z95" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB95" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC95" s="8">
         <v>20</v>
@@ -2736,10 +3249,10 @@
         <v>25</v>
       </c>
       <c r="AH95" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AI95" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="22:35" x14ac:dyDescent="0.3">
@@ -2779,10 +3292,10 @@
     </row>
     <row r="106" spans="26:37" x14ac:dyDescent="0.3">
       <c r="Z106" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AA106" s="13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="26:37" x14ac:dyDescent="0.3">
@@ -2790,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="AK109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="26:37" x14ac:dyDescent="0.3">
@@ -2810,10 +3323,6 @@
       </c>
     </row>
     <row r="112" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z112" t="e">
-        <f>+AJ109:ZZ112</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="AF112" t="s">
         <v>7</v>
       </c>
@@ -2839,26 +3348,26 @@
     </row>
     <row r="114" spans="32:38" x14ac:dyDescent="0.3">
       <c r="AH114" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AI114" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="32:38" x14ac:dyDescent="0.3">
       <c r="AH115" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI115" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="32:38" x14ac:dyDescent="0.3">
       <c r="AH116" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AI116" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="32:38" x14ac:dyDescent="0.3">
@@ -2874,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="AI119" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="32:38" x14ac:dyDescent="0.3">
@@ -2882,12 +3391,12 @@
         <v>3</v>
       </c>
       <c r="AI120" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="32:38" x14ac:dyDescent="0.3">
       <c r="AJ123" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AK123" t="s">
         <v>3</v>
@@ -2900,7 +3409,7 @@
     </row>
     <row r="130" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ130" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK130" s="6"/>
       <c r="AL130" s="6"/>
@@ -2908,13 +3417,13 @@
     <row r="131" spans="36:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="36:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AJ132" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AK132" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AL132" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM132" s="8">
         <v>20</v>
@@ -2923,10 +3432,10 @@
         <v>25</v>
       </c>
       <c r="AP132" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AQ132" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="36:48" x14ac:dyDescent="0.3">
@@ -2945,23 +3454,24 @@
         <v>20</v>
       </c>
       <c r="AQ142" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AR142" s="10">
         <v>25</v>
       </c>
       <c r="AT142" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AU142" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV142" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="AV142" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AD52:AE52"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
